--- a/data/trans_orig/P23-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P23-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>223981</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>202287</v>
+        <v>201442</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>247512</v>
+        <v>246972</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4727573499066722</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4269668329638466</v>
+        <v>0.425183735259433</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.522424928852955</v>
+        <v>0.5212834315688837</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>172</v>
@@ -764,19 +764,19 @@
         <v>176339</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>159147</v>
+        <v>158776</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>193244</v>
+        <v>192253</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5749935003159846</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5189349722078219</v>
+        <v>0.5177251477683624</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6301163760846951</v>
+        <v>0.6268858787053814</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>385</v>
@@ -785,19 +785,19 @@
         <v>400321</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>371227</v>
+        <v>373515</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>427077</v>
+        <v>430106</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5129310289870526</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4756530366253657</v>
+        <v>0.4785853871031325</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5472139890695648</v>
+        <v>0.5510953270650943</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>98183</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>82561</v>
+        <v>80622</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>118169</v>
+        <v>117418</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2072357293775335</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1742621457590055</v>
+        <v>0.1701686738707766</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2494197081804221</v>
+        <v>0.247833787346952</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -835,19 +835,19 @@
         <v>38067</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27475</v>
+        <v>27531</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50582</v>
+        <v>50675</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1241248543972763</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08958932492469877</v>
+        <v>0.08977147826471855</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1649356513584692</v>
+        <v>0.1652364687160614</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>131</v>
@@ -856,19 +856,19 @@
         <v>136250</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>116428</v>
+        <v>115125</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>160632</v>
+        <v>157466</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.174577324242178</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1491793358671951</v>
+        <v>0.1475093394034859</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2058181044212823</v>
+        <v>0.2017616458139947</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>13194</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7334</v>
+        <v>6530</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23090</v>
+        <v>21901</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0278481529926776</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01547985216986299</v>
+        <v>0.01378279985909853</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04873551080899904</v>
+        <v>0.04622607983465493</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -906,19 +906,19 @@
         <v>10659</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5242</v>
+        <v>4964</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18456</v>
+        <v>19101</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03475536255477217</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01709381842913409</v>
+        <v>0.01618500199682945</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.060180469709781</v>
+        <v>0.06228333289987337</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -927,19 +927,19 @@
         <v>23853</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15189</v>
+        <v>15785</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35532</v>
+        <v>34551</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0305623398940581</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01946223644052278</v>
+        <v>0.02022490022946241</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04552690205675335</v>
+        <v>0.04427036866175909</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>138418</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>119792</v>
+        <v>119604</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158569</v>
+        <v>161486</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2921587677231167</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2528451658688103</v>
+        <v>0.2524483042553606</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3346910187948198</v>
+        <v>0.3408482984268968</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -977,19 +977,19 @@
         <v>81616</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66646</v>
+        <v>67863</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96148</v>
+        <v>96967</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2661262827319669</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2173138876666783</v>
+        <v>0.2212837714472763</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3135124902998939</v>
+        <v>0.3161829223317671</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>215</v>
@@ -998,19 +998,19 @@
         <v>220034</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>195409</v>
+        <v>191547</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>245269</v>
+        <v>245754</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2819293068767114</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2503779784167439</v>
+        <v>0.2454290373562877</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3142631720310665</v>
+        <v>0.3148846158824814</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>151032</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>131714</v>
+        <v>130655</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>169045</v>
+        <v>169571</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4116066463088767</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3589582897106796</v>
+        <v>0.3560732261342515</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4606959529146408</v>
+        <v>0.4621289519446817</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>192</v>
@@ -1123,19 +1123,19 @@
         <v>197249</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>179472</v>
+        <v>178294</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>218239</v>
+        <v>216919</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5304307613781595</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4826279059864851</v>
+        <v>0.4794582139325595</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5868759741087537</v>
+        <v>0.5833284005070326</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>337</v>
@@ -1144,19 +1144,19 @@
         <v>348281</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>317839</v>
+        <v>320089</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>377181</v>
+        <v>376597</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4714152183958635</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4302100635535805</v>
+        <v>0.4332564579620208</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5105325901170696</v>
+        <v>0.5097426182674853</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>80733</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65636</v>
+        <v>64653</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>98800</v>
+        <v>100038</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2200211049078715</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1788762367514222</v>
+        <v>0.1761988879257287</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2692579061576797</v>
+        <v>0.272633488615554</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -1194,19 +1194,19 @@
         <v>41617</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29678</v>
+        <v>30813</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55148</v>
+        <v>55204</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1119136982501518</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0798080445998658</v>
+        <v>0.08286136586637194</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1483010527638458</v>
+        <v>0.1484510483284951</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -1215,19 +1215,19 @@
         <v>122350</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>102486</v>
+        <v>104129</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>145206</v>
+        <v>145754</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1656066485455796</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1387203499907976</v>
+        <v>0.1409434483163924</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1965430536050174</v>
+        <v>0.1972853400273318</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>7376</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3507</v>
+        <v>2879</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15079</v>
+        <v>14921</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02010289485256559</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009556382915774866</v>
+        <v>0.007844986812695146</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04109488418071744</v>
+        <v>0.04066305242065059</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1265,19 +1265,19 @@
         <v>16328</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8949</v>
+        <v>9425</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25588</v>
+        <v>26367</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04390894907652833</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.024064145631747</v>
+        <v>0.0253453779233881</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06881018794654446</v>
+        <v>0.07090608096062977</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -1286,19 +1286,19 @@
         <v>23705</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15821</v>
+        <v>15489</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>35554</v>
+        <v>35072</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03208536246303687</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02141451466137815</v>
+        <v>0.02096460954957054</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04812429058349871</v>
+        <v>0.04747216311877524</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>127792</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>110655</v>
+        <v>110133</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>148680</v>
+        <v>147115</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3482693539306862</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3015651679679441</v>
+        <v>0.3001439627819491</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4051955338422449</v>
+        <v>0.4009304446138601</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>115</v>
@@ -1336,19 +1336,19 @@
         <v>116671</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>99750</v>
+        <v>97265</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>134774</v>
+        <v>134680</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3137465912951605</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2682420338634215</v>
+        <v>0.2615587376960453</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3624271402219399</v>
+        <v>0.362175702001532</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>236</v>
@@ -1357,19 +1357,19 @@
         <v>244463</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>217750</v>
+        <v>219166</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>271216</v>
+        <v>271166</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3308927705955199</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2947354048133416</v>
+        <v>0.2966510925397704</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3671044541527674</v>
+        <v>0.3670363170500915</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>180664</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>159602</v>
+        <v>157329</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>201672</v>
+        <v>201764</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3330895345935342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2942575307587215</v>
+        <v>0.2900663180129622</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.371821587780214</v>
+        <v>0.3719917878516364</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>94</v>
@@ -1482,19 +1482,19 @@
         <v>97203</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>83906</v>
+        <v>84751</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>109842</v>
+        <v>109908</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5793413509900965</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5000865238256649</v>
+        <v>0.5051259167737739</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6546684728036922</v>
+        <v>0.6550640641042201</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>268</v>
@@ -1503,19 +1503,19 @@
         <v>277867</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>253677</v>
+        <v>249102</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>302649</v>
+        <v>302344</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3912679161310338</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3572053206808736</v>
+        <v>0.3507634342076797</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4261629394613944</v>
+        <v>0.4257337135286441</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>106704</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>87806</v>
+        <v>89504</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>124711</v>
+        <v>127477</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1967288650771966</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1618870030850953</v>
+        <v>0.1650174424803019</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.229929921794808</v>
+        <v>0.235029146691901</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>24</v>
@@ -1553,19 +1553,19 @@
         <v>24376</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>16280</v>
+        <v>16718</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>34392</v>
+        <v>33834</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1452831192434902</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09702821962356341</v>
+        <v>0.09964389225896407</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2049822534769101</v>
+        <v>0.2016563694803625</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>132</v>
@@ -1574,19 +1574,19 @@
         <v>131079</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>110402</v>
+        <v>111753</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>151693</v>
+        <v>154056</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1845745172498707</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1554585430730269</v>
+        <v>0.1573608265143795</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2136010758108641</v>
+        <v>0.2169280294244836</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>12149</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6343</v>
+        <v>6876</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20147</v>
+        <v>20633</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02239886065776031</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01169432870077824</v>
+        <v>0.01267788274134707</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03714580317252476</v>
+        <v>0.03804163661460532</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1624,19 +1624,19 @@
         <v>3880</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>987</v>
+        <v>997</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9655</v>
+        <v>9576</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02312555502096527</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005883867342536903</v>
+        <v>0.005944533131163543</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05754520904906194</v>
+        <v>0.05707572183435525</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1645,19 +1645,19 @@
         <v>16029</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9701</v>
+        <v>9364</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23984</v>
+        <v>24485</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02257054630273279</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01366045767626013</v>
+        <v>0.0131857932644734</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03377151762238097</v>
+        <v>0.03447698784905722</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>242872</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>221249</v>
+        <v>220669</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>265474</v>
+        <v>266733</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4477827396715089</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4079150822858007</v>
+        <v>0.4068466275146666</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4894536105766346</v>
+        <v>0.4917744446553863</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -1695,19 +1695,19 @@
         <v>42323</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31567</v>
+        <v>32107</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54192</v>
+        <v>54470</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.252249974745448</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1881414475387577</v>
+        <v>0.1913596897829229</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3229917518659692</v>
+        <v>0.3246502546839216</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>279</v>
@@ -1716,19 +1716,19 @@
         <v>285195</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>259474</v>
+        <v>260010</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>312041</v>
+        <v>313959</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4015870203163627</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3653677254277037</v>
+        <v>0.3661231011484529</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4393881434770683</v>
+        <v>0.4420886852114218</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>400727</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>369861</v>
+        <v>368847</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>433350</v>
+        <v>433248</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.323601533263442</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2986763266187497</v>
+        <v>0.2978573163353138</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3499457384932771</v>
+        <v>0.3498638834021044</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>398</v>
@@ -1841,19 +1841,19 @@
         <v>408833</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>381146</v>
+        <v>383099</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>433650</v>
+        <v>437514</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5723668180449442</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5336051984654805</v>
+        <v>0.5363395291846975</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6071111896764653</v>
+        <v>0.6125203616549908</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>795</v>
@@ -1862,19 +1862,19 @@
         <v>809560</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>767873</v>
+        <v>765489</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>855222</v>
+        <v>849600</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4146020444190516</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3932526393990175</v>
+        <v>0.3920319003342639</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4379870877177041</v>
+        <v>0.4351079066964907</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>272929</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>245092</v>
+        <v>246813</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>304770</v>
+        <v>303728</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2204001430829935</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1979203596173664</v>
+        <v>0.1993108870506486</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2461126846526067</v>
+        <v>0.2452712459224442</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>62</v>
@@ -1912,19 +1912,19 @@
         <v>64356</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50568</v>
+        <v>50563</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79838</v>
+        <v>80999</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09009915247799506</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07079461888732234</v>
+        <v>0.07078888236630637</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.111773924154767</v>
+        <v>0.1133985536680942</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>338</v>
@@ -1933,19 +1933,19 @@
         <v>337286</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>305986</v>
+        <v>304612</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>370093</v>
+        <v>370662</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1727349041025952</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1567054116045707</v>
+        <v>0.1560016190282226</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1895364712058596</v>
+        <v>0.1898279242247833</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>30251</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21361</v>
+        <v>21179</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42241</v>
+        <v>43419</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02442901750723055</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01724951590692428</v>
+        <v>0.0171026178440182</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03411154941454014</v>
+        <v>0.03506213813204383</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -1983,19 +1983,19 @@
         <v>18679</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11439</v>
+        <v>11646</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>27378</v>
+        <v>28478</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02615090016942547</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01601395510298938</v>
+        <v>0.01630373183565665</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03832939618685684</v>
+        <v>0.03986876878319406</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>49</v>
@@ -2004,19 +2004,19 @@
         <v>48931</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>36654</v>
+        <v>37187</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>63151</v>
+        <v>64564</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02505889720506438</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01877158081190113</v>
+        <v>0.01904477389653961</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03234142548602576</v>
+        <v>0.03306548343929416</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>534427</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>503788</v>
+        <v>498809</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>568627</v>
+        <v>567155</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.431569306146334</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4068271859722832</v>
+        <v>0.4028069157452783</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4591870769375588</v>
+        <v>0.4579983482725072</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>215</v>
@@ -2054,19 +2054,19 @@
         <v>222416</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>199475</v>
+        <v>196709</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>249291</v>
+        <v>245470</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3113831293076353</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2792648855226338</v>
+        <v>0.2753923962872111</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3490072830899261</v>
+        <v>0.3436583960440464</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>736</v>
@@ -2075,19 +2075,19 @@
         <v>756844</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>710183</v>
+        <v>713850</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>798614</v>
+        <v>801165</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3876041542732889</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3637075693448713</v>
+        <v>0.3655856801411942</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4089963711842426</v>
+        <v>0.410302741305502</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>98370</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>82653</v>
+        <v>82464</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>117333</v>
+        <v>117009</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2806110058201407</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2357782588082594</v>
+        <v>0.235238787265397</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3347066379822226</v>
+        <v>0.3337816851905117</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>329</v>
@@ -2200,19 +2200,19 @@
         <v>349299</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>324863</v>
+        <v>324844</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>374018</v>
+        <v>372291</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6141496847294956</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5711851841442016</v>
+        <v>0.5711528461991284</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6576122508604384</v>
+        <v>0.6545760456451679</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>424</v>
@@ -2221,19 +2221,19 @@
         <v>447668</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>416053</v>
+        <v>417388</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>477655</v>
+        <v>480254</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4869628717567079</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4525722363253949</v>
+        <v>0.4540241758479778</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5195811301527994</v>
+        <v>0.5224089642388667</v>
       </c>
     </row>
     <row r="25">
@@ -2250,19 +2250,19 @@
         <v>64561</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51539</v>
+        <v>50928</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81286</v>
+        <v>79099</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1841690905573121</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1470217768284465</v>
+        <v>0.1452772006269963</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2318774102339365</v>
+        <v>0.225640012915398</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -2271,19 +2271,19 @@
         <v>38940</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28025</v>
+        <v>28538</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52086</v>
+        <v>52278</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06846514714928456</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04927405135426115</v>
+        <v>0.05017652166093559</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0915803309432015</v>
+        <v>0.09191680699595005</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>102</v>
@@ -2292,19 +2292,19 @@
         <v>103501</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>84426</v>
+        <v>86532</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>124036</v>
+        <v>124564</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1125860145058713</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09183634643344017</v>
+        <v>0.09412696843597977</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1349235021735353</v>
+        <v>0.1354980652644314</v>
       </c>
     </row>
     <row r="26">
@@ -2321,19 +2321,19 @@
         <v>5435</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1804</v>
+        <v>1796</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12800</v>
+        <v>13950</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01550321739269287</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005145521052345869</v>
+        <v>0.005123666444939301</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03651363518309631</v>
+        <v>0.03979432978867967</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2342,19 +2342,19 @@
         <v>15153</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8060</v>
+        <v>8387</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25347</v>
+        <v>24714</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02664212417105707</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01417143732016658</v>
+        <v>0.01474707731418868</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04456587755135612</v>
+        <v>0.04345223268353447</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -2363,19 +2363,19 @@
         <v>20587</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12993</v>
+        <v>11927</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>32970</v>
+        <v>30877</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02239457465813793</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01413302759500089</v>
+        <v>0.01297377212829827</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03586425778625347</v>
+        <v>0.03358766985688462</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>182189</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>161766</v>
+        <v>163532</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>200080</v>
+        <v>200975</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5197166862298542</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4614579804890914</v>
+        <v>0.4664947128082582</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5707509323109076</v>
+        <v>0.5733064032956402</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>158</v>
@@ -2413,19 +2413,19 @@
         <v>165361</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>143838</v>
+        <v>144756</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>189783</v>
+        <v>189079</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2907430439501628</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2529017357398909</v>
+        <v>0.2545160227862976</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3336829819501322</v>
+        <v>0.3324455262910664</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>334</v>
@@ -2434,19 +2434,19 @@
         <v>347550</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>316595</v>
+        <v>318086</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>376997</v>
+        <v>379001</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3780565390792829</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3443839357301461</v>
+        <v>0.3460059643697771</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4100880787591251</v>
+        <v>0.4122684591394498</v>
       </c>
     </row>
     <row r="28">
@@ -2538,19 +2538,19 @@
         <v>203926</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>188848</v>
+        <v>186859</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>220039</v>
+        <v>218603</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6862537107557554</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6355142569308827</v>
+        <v>0.6288216748436735</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7404780783173627</v>
+        <v>0.7356440975782697</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1019</v>
@@ -2559,19 +2559,19 @@
         <v>1030601</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1002754</v>
+        <v>1003157</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1055637</v>
+        <v>1055869</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8252994170070568</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8029995412162722</v>
+        <v>0.803322199388816</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8453483605431823</v>
+        <v>0.8455340474905051</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1230</v>
@@ -2580,19 +2580,19 @@
         <v>1234527</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1203832</v>
+        <v>1202806</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1265553</v>
+        <v>1262183</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7985718812536232</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7787167684515581</v>
+        <v>0.778053218554115</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8186418188254221</v>
+        <v>0.8164616392209906</v>
       </c>
     </row>
     <row r="30">
@@ -2609,19 +2609,19 @@
         <v>5527</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1853</v>
+        <v>1958</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11198</v>
+        <v>11138</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01859929856359895</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.006234935146837242</v>
+        <v>0.006587556010733134</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03768225204620629</v>
+        <v>0.037482098996831</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>47</v>
@@ -2630,19 +2630,19 @@
         <v>48988</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>35905</v>
+        <v>36199</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>64624</v>
+        <v>66734</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03922948637463911</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02875291520252262</v>
+        <v>0.02898797559219626</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05175029188146469</v>
+        <v>0.05344050998548941</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>53</v>
@@ -2651,19 +2651,19 @@
         <v>54515</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>41434</v>
+        <v>41498</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>71262</v>
+        <v>70423</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03526392643621803</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02680209753120588</v>
+        <v>0.02684374059891851</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04609684111518578</v>
+        <v>0.04555424904260807</v>
       </c>
     </row>
     <row r="31">
@@ -2680,19 +2680,19 @@
         <v>16632</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10038</v>
+        <v>9957</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>25524</v>
+        <v>26209</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05596929095389837</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0337808484898728</v>
+        <v>0.03350841981647413</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08589213234601285</v>
+        <v>0.08819854731270385</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>22</v>
@@ -2701,19 +2701,19 @@
         <v>19820</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12614</v>
+        <v>12559</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>31314</v>
+        <v>29413</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0158714819543118</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01010129209100035</v>
+        <v>0.01005703615193364</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02507631063816048</v>
+        <v>0.02355390701218691</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>39</v>
@@ -2722,19 +2722,19 @@
         <v>36451</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>26231</v>
+        <v>26018</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>47838</v>
+        <v>49041</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02357913185278373</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01696769506137421</v>
+        <v>0.01683024145669586</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03094501481215053</v>
+        <v>0.03172262759983813</v>
       </c>
     </row>
     <row r="32">
@@ -2751,19 +2751,19 @@
         <v>71074</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>57907</v>
+        <v>58295</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>85374</v>
+        <v>87290</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2391776997267474</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.194870199891407</v>
+        <v>0.1961751177194354</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2873001344315019</v>
+        <v>0.2937478353603887</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>150</v>
@@ -2772,19 +2772,19 @@
         <v>149351</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>128147</v>
+        <v>128348</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>171478</v>
+        <v>171977</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1195996146639923</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1026197220805993</v>
+        <v>0.1027807451420693</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1373186466775925</v>
+        <v>0.1377185417784213</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>221</v>
@@ -2793,19 +2793,19 @@
         <v>220425</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>195351</v>
+        <v>194141</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>248633</v>
+        <v>247396</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.142585060457375</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1263657540856614</v>
+        <v>0.1255831634866331</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1608316634295541</v>
+        <v>0.1600320579622597</v>
       </c>
     </row>
     <row r="33">
@@ -2897,19 +2897,19 @@
         <v>1258701</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1202596</v>
+        <v>1200514</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1318904</v>
+        <v>1315845</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3850240587351888</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.367862331117525</v>
+        <v>0.367225377496067</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4034397767277614</v>
+        <v>0.4025038279620368</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2204</v>
@@ -2918,19 +2918,19 @@
         <v>2259523</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2203155</v>
+        <v>2200465</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2312716</v>
+        <v>2310241</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6688692958107835</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6521829485456546</v>
+        <v>0.6513866642796898</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6846155551357597</v>
+        <v>0.6838827008584042</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3439</v>
@@ -2939,19 +2939,19 @@
         <v>3518224</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3438856</v>
+        <v>3429903</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3604154</v>
+        <v>3601379</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5292733765444599</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.517333475100019</v>
+        <v>0.5159865129170875</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5422004303274451</v>
+        <v>0.5417830161129249</v>
       </c>
     </row>
     <row r="35">
@@ -2968,19 +2968,19 @@
         <v>628638</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>587623</v>
+        <v>583991</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>674119</v>
+        <v>671693</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1922940746904916</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.179748079750037</v>
+        <v>0.1786370024594988</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2062063091583587</v>
+        <v>0.2054641875094763</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>248</v>
@@ -2989,19 +2989,19 @@
         <v>256344</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>227785</v>
+        <v>225218</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>290158</v>
+        <v>286826</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07588344651058991</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06742931087139577</v>
+        <v>0.06666949855060335</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0858932916070488</v>
+        <v>0.08490701987071063</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>873</v>
@@ -3010,19 +3010,19 @@
         <v>884981</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>827344</v>
+        <v>831417</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>939171</v>
+        <v>943713</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1331345345350675</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1244636505626328</v>
+        <v>0.125076429368427</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1412866331501555</v>
+        <v>0.1419700172639048</v>
       </c>
     </row>
     <row r="36">
@@ -3039,19 +3039,19 @@
         <v>85037</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>69146</v>
+        <v>67896</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>103748</v>
+        <v>106097</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02601194845905752</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02115106927198661</v>
+        <v>0.02076881643112125</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03173546111250043</v>
+        <v>0.03245410362531512</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>85</v>
@@ -3060,19 +3060,19 @@
         <v>84519</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>68306</v>
+        <v>68383</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>103538</v>
+        <v>103579</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02501940709668208</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02022023210533767</v>
+        <v>0.0202429074378337</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03064960657168653</v>
+        <v>0.03066158033163935</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>169</v>
@@ -3081,19 +3081,19 @@
         <v>169556</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>144683</v>
+        <v>145359</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>194737</v>
+        <v>197298</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0255075418468655</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02176570732689345</v>
+        <v>0.02186742468059158</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02929576657315565</v>
+        <v>0.02968098339052178</v>
       </c>
     </row>
     <row r="37">
@@ -3110,19 +3110,19 @@
         <v>1296773</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1241185</v>
+        <v>1241041</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1354166</v>
+        <v>1352351</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3966699181152621</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3796660742954941</v>
+        <v>0.3796222376555167</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.414225883122228</v>
+        <v>0.413670870971944</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>759</v>
@@ -3131,19 +3131,19 @@
         <v>777738</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>731712</v>
+        <v>730954</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>829236</v>
+        <v>828204</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2302278505819445</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2166030750929554</v>
+        <v>0.2163786994542554</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2454724383312077</v>
+        <v>0.2451667812739508</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2021</v>
@@ -3152,19 +3152,19 @@
         <v>2074511</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2003572</v>
+        <v>1997607</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2151536</v>
+        <v>2148744</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3120845470736072</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3014126527627057</v>
+        <v>0.3005152544534727</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3236720539898472</v>
+        <v>0.3232519352603896</v>
       </c>
     </row>
     <row r="38">
@@ -3498,19 +3498,19 @@
         <v>176833</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>156534</v>
+        <v>156356</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>199362</v>
+        <v>198483</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4044577049059132</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3580292422069681</v>
+        <v>0.3576209514718999</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4559857216320714</v>
+        <v>0.4539748744180462</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>146</v>
@@ -3519,19 +3519,19 @@
         <v>162426</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>143258</v>
+        <v>143244</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>180660</v>
+        <v>181249</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5165332068591073</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4555777862162506</v>
+        <v>0.4555313862381403</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5745196630718735</v>
+        <v>0.5763929109775585</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>310</v>
@@ -3540,19 +3540,19 @@
         <v>339259</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>311651</v>
+        <v>309306</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>366640</v>
+        <v>367395</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4513437735747893</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4146146451377257</v>
+        <v>0.4114949318122283</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.487770944675585</v>
+        <v>0.4887745476348808</v>
       </c>
     </row>
     <row r="5">
@@ -3569,19 +3569,19 @@
         <v>112072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>94565</v>
+        <v>94658</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>132341</v>
+        <v>133453</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2563329105133573</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2162922019139446</v>
+        <v>0.216505054641039</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3026927095590611</v>
+        <v>0.3052360600661391</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -3590,19 +3590,19 @@
         <v>53149</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39279</v>
+        <v>40733</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67571</v>
+        <v>69095</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1690196920690536</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1249107660466845</v>
+        <v>0.1295340701207888</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2148842165943197</v>
+        <v>0.2197288642243161</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>149</v>
@@ -3611,19 +3611,19 @@
         <v>165220</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>144006</v>
+        <v>141270</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>192032</v>
+        <v>191539</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.219805984607731</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.191582392625049</v>
+        <v>0.1879426273567298</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2554754157115164</v>
+        <v>0.2548193805682037</v>
       </c>
     </row>
     <row r="6">
@@ -3640,19 +3640,19 @@
         <v>8793</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3960</v>
+        <v>3883</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16516</v>
+        <v>17079</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02011232637821179</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009057026676842696</v>
+        <v>0.008880682718304384</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0377760406383118</v>
+        <v>0.03906343926350429</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -3661,19 +3661,19 @@
         <v>8946</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4205</v>
+        <v>4653</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15370</v>
+        <v>16881</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02844880704842892</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01337125998397433</v>
+        <v>0.01479575573332648</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0488786283162299</v>
+        <v>0.05368309120793052</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -3682,19 +3682,19 @@
         <v>17739</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11126</v>
+        <v>10966</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29298</v>
+        <v>29385</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0235998396915476</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01480170709878352</v>
+        <v>0.01458878591464773</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03897706919847531</v>
+        <v>0.03909263218160687</v>
       </c>
     </row>
     <row r="7">
@@ -3711,19 +3711,19 @@
         <v>139513</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>120384</v>
+        <v>120945</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>162236</v>
+        <v>162526</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3190970582025177</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2753453051535387</v>
+        <v>0.2766279265368493</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3710713362168611</v>
+        <v>0.3717336641564853</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>81</v>
@@ -3732,19 +3732,19 @@
         <v>89933</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74342</v>
+        <v>73293</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107797</v>
+        <v>108134</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2859982940234101</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2364149426039562</v>
+        <v>0.2330795690377569</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3428084050526748</v>
+        <v>0.3438796141822117</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>211</v>
@@ -3753,19 +3753,19 @@
         <v>229446</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>200299</v>
+        <v>202157</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>254955</v>
+        <v>257073</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3052504021259322</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2664742679140884</v>
+        <v>0.2689454396828756</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.33918720796588</v>
+        <v>0.3420044366520489</v>
       </c>
     </row>
     <row r="8">
@@ -3857,19 +3857,19 @@
         <v>175287</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>153747</v>
+        <v>154751</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>197174</v>
+        <v>197280</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.418548648305257</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3671161762139377</v>
+        <v>0.3695122010765097</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4708098740336604</v>
+        <v>0.4710631726307603</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>145</v>
@@ -3878,19 +3878,19 @@
         <v>158255</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>138496</v>
+        <v>138120</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>176746</v>
+        <v>177158</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.468196011926575</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4097395109340891</v>
+        <v>0.4086252047120981</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5228993878688518</v>
+        <v>0.5241202668265984</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>301</v>
@@ -3899,19 +3899,19 @@
         <v>333542</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>302589</v>
+        <v>304281</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>360257</v>
+        <v>362435</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4407225136301635</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3998221639042613</v>
+        <v>0.4020578817393593</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4760211173730898</v>
+        <v>0.4788996176077302</v>
       </c>
     </row>
     <row r="10">
@@ -3928,19 +3928,19 @@
         <v>93034</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76370</v>
+        <v>76986</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111352</v>
+        <v>112023</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2221462703343502</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1823567716940568</v>
+        <v>0.1838255501616906</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2658852755347528</v>
+        <v>0.2674874177674348</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -3949,19 +3949,19 @@
         <v>54059</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41801</v>
+        <v>41615</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70938</v>
+        <v>70790</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1599313878546963</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1236675751826934</v>
+        <v>0.1231179501883634</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2098703105743877</v>
+        <v>0.209431140547351</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -3970,19 +3970,19 @@
         <v>147093</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>123063</v>
+        <v>124657</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>167540</v>
+        <v>170488</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1943594086626789</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1626081505620335</v>
+        <v>0.1647139413906322</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2213769302584876</v>
+        <v>0.2252730305658377</v>
       </c>
     </row>
     <row r="11">
@@ -3999,19 +3999,19 @@
         <v>12268</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6191</v>
+        <v>6840</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21670</v>
+        <v>22795</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02929430661759506</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01478237199880435</v>
+        <v>0.0163319021034375</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05174252919734187</v>
+        <v>0.05443075707508609</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -4020,19 +4020,19 @@
         <v>11853</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5523</v>
+        <v>5924</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21249</v>
+        <v>23223</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03506730255434102</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01634113056676271</v>
+        <v>0.01752563679583859</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06286417926404381</v>
+        <v>0.06870514388042816</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>20</v>
@@ -4041,19 +4041,19 @@
         <v>24122</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16240</v>
+        <v>15329</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>39754</v>
+        <v>37653</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03187268389859275</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0214584438646638</v>
+        <v>0.02025505227860049</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05252837011438526</v>
+        <v>0.04975289016905639</v>
       </c>
     </row>
     <row r="12">
@@ -4070,19 +4070,19 @@
         <v>138208</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>118708</v>
+        <v>116991</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>158318</v>
+        <v>159103</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3300107747427977</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2834490122215447</v>
+        <v>0.2793505072925951</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3780312122521595</v>
+        <v>0.3799055067300784</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>101</v>
@@ -4091,19 +4091,19 @@
         <v>113844</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>97726</v>
+        <v>95228</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>132877</v>
+        <v>133029</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3368052976643877</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2891207049277577</v>
+        <v>0.2817312132799493</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3931154797108258</v>
+        <v>0.393563892206453</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>225</v>
@@ -4112,19 +4112,19 @@
         <v>252051</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>226269</v>
+        <v>222136</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>282644</v>
+        <v>278834</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3330453938085648</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2989786594663144</v>
+        <v>0.2935164049426974</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3734680926782334</v>
+        <v>0.3684344934166949</v>
       </c>
     </row>
     <row r="13">
@@ -4216,19 +4216,19 @@
         <v>189013</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>167276</v>
+        <v>164629</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>214431</v>
+        <v>213738</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3002991385012566</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2657646523127038</v>
+        <v>0.2615591446696722</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3406832000798757</v>
+        <v>0.3395824747436767</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>131</v>
@@ -4237,19 +4237,19 @@
         <v>139711</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>122272</v>
+        <v>123294</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>156722</v>
+        <v>154727</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5370838227434217</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4700445036335058</v>
+        <v>0.4739717891653387</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6024775372568627</v>
+        <v>0.5948099010974922</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>310</v>
@@ -4258,19 +4258,19 @@
         <v>328724</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>301035</v>
+        <v>299856</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>359574</v>
+        <v>357593</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3695420850591111</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3384144820767971</v>
+        <v>0.3370900127209339</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4042224535650948</v>
+        <v>0.4019955854114805</v>
       </c>
     </row>
     <row r="15">
@@ -4287,19 +4287,19 @@
         <v>167510</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>145284</v>
+        <v>145064</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>192152</v>
+        <v>192868</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.266136553184399</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2308246285511725</v>
+        <v>0.2304740534436284</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3052859257735997</v>
+        <v>0.3064234580840818</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>32</v>
@@ -4308,19 +4308,19 @@
         <v>35170</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>24862</v>
+        <v>25184</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>48761</v>
+        <v>47164</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1352013321796509</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09557401847017642</v>
+        <v>0.09681542022152667</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1874485030764829</v>
+        <v>0.1813111169949651</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>188</v>
@@ -4329,19 +4329,19 @@
         <v>202680</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>175489</v>
+        <v>179547</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>231154</v>
+        <v>229841</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2278471657622789</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1972798536909285</v>
+        <v>0.2018419287847622</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2598569994903956</v>
+        <v>0.2583807660600226</v>
       </c>
     </row>
     <row r="16">
@@ -4358,19 +4358,19 @@
         <v>15825</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8583</v>
+        <v>8681</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24547</v>
+        <v>26018</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02514240694084663</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01363617643106387</v>
+        <v>0.01379247867558799</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03899990801114469</v>
+        <v>0.04133681567072539</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -4379,19 +4379,19 @@
         <v>6594</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2055</v>
+        <v>2604</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15984</v>
+        <v>14848</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02534820103483858</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007900927433549934</v>
+        <v>0.01001210630901448</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06144656888270587</v>
+        <v>0.05707804108635279</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -4400,19 +4400,19 @@
         <v>22419</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13925</v>
+        <v>13425</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35931</v>
+        <v>34376</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02520258730892159</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01565449287403951</v>
+        <v>0.01509216462885372</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04039280895885695</v>
+        <v>0.03864403063228741</v>
       </c>
     </row>
     <row r="17">
@@ -4429,19 +4429,19 @@
         <v>257067</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>232232</v>
+        <v>232932</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>281214</v>
+        <v>284902</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4084219013734978</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.368964045406569</v>
+        <v>0.3700772879137977</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4467868044180461</v>
+        <v>0.4526461119124515</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>76</v>
@@ -4450,19 +4450,19 @@
         <v>78654</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>63371</v>
+        <v>64837</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92863</v>
+        <v>93303</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3023666440420887</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2436155444284185</v>
+        <v>0.2492476530060278</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3569863857211531</v>
+        <v>0.3586784459958773</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>318</v>
@@ -4471,19 +4471,19 @@
         <v>335721</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>307466</v>
+        <v>308188</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>363920</v>
+        <v>368351</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3774081618696884</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3456450438251809</v>
+        <v>0.3464566956254043</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4091081579345249</v>
+        <v>0.4140899367784786</v>
       </c>
     </row>
     <row r="18">
@@ -4575,19 +4575,19 @@
         <v>329480</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>297845</v>
+        <v>297422</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>359932</v>
+        <v>362050</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2845299985967576</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2572112641544617</v>
+        <v>0.2568457184700714</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.31082736403302</v>
+        <v>0.3126565193192872</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>343</v>
@@ -4596,19 +4596,19 @@
         <v>365644</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>336601</v>
+        <v>338442</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>394418</v>
+        <v>396243</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4775538578789076</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4396219478897706</v>
+        <v>0.4420258269775764</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5151334659129603</v>
+        <v>0.5175172137184477</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>653</v>
@@ -4617,19 +4617,19 @@
         <v>695124</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>652387</v>
+        <v>649513</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>737161</v>
+        <v>737285</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3613587378489168</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3391417294961581</v>
+        <v>0.3376478898128518</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3832112221607794</v>
+        <v>0.3832757293671248</v>
       </c>
     </row>
     <row r="20">
@@ -4646,19 +4646,19 @@
         <v>329109</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>297438</v>
+        <v>298603</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>360869</v>
+        <v>364339</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2842096473320025</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2568591219694553</v>
+        <v>0.2578652520361126</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3116364558817142</v>
+        <v>0.3146331839768551</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>104</v>
@@ -4667,19 +4667,19 @@
         <v>114146</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>95808</v>
+        <v>95011</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>136509</v>
+        <v>136308</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1490821004454921</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1251306311041144</v>
+        <v>0.1240903305005996</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1782890291367057</v>
+        <v>0.1780271885735426</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>411</v>
@@ -4688,19 +4688,19 @@
         <v>443255</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>405947</v>
+        <v>403899</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>485226</v>
+        <v>481879</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2304252130960651</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2110305210633729</v>
+        <v>0.2099656566216029</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2522435328835199</v>
+        <v>0.2505038068712995</v>
       </c>
     </row>
     <row r="21">
@@ -4717,19 +4717,19 @@
         <v>26490</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17279</v>
+        <v>16597</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38417</v>
+        <v>38896</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02287641014059828</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01492140476409985</v>
+        <v>0.01433289407157375</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03317576134002414</v>
+        <v>0.03358930825310364</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -4738,19 +4738,19 @@
         <v>19119</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11271</v>
+        <v>11496</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>29890</v>
+        <v>30983</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02497054461137792</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01471999296566149</v>
+        <v>0.01501436279832211</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03903807299280562</v>
+        <v>0.0404650393166578</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>41</v>
@@ -4759,19 +4759,19 @@
         <v>45609</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>33064</v>
+        <v>33253</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>60655</v>
+        <v>61537</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02370993254457897</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01718806223944877</v>
+        <v>0.01728666037287801</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0315310915373755</v>
+        <v>0.03199004177405556</v>
       </c>
     </row>
     <row r="22">
@@ -4788,19 +4788,19 @@
         <v>472900</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>438574</v>
+        <v>438248</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>506093</v>
+        <v>509082</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4083839439306415</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3787402897271605</v>
+        <v>0.3784591595430996</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4370478327490009</v>
+        <v>0.4396297133486748</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>246</v>
@@ -4809,19 +4809,19 @@
         <v>266751</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>237542</v>
+        <v>239653</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>293329</v>
+        <v>294596</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3483934970642224</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3102441744468454</v>
+        <v>0.3130017129227008</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3831051763186048</v>
+        <v>0.3847609284917201</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>687</v>
@@ -4830,19 +4830,19 @@
         <v>739652</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>695675</v>
+        <v>699925</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>785373</v>
+        <v>784930</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3845061165104391</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3616448404439076</v>
+        <v>0.3638542906700723</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4082743652026846</v>
+        <v>0.4080439965222353</v>
       </c>
     </row>
     <row r="23">
@@ -4934,19 +4934,19 @@
         <v>161982</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>142132</v>
+        <v>140466</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>182192</v>
+        <v>183508</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3172412469268034</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2783657307472162</v>
+        <v>0.2751026561471709</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3568222072112683</v>
+        <v>0.3593995184466732</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>438</v>
@@ -4955,19 +4955,19 @@
         <v>473509</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>445630</v>
+        <v>443462</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>501292</v>
+        <v>499522</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.622599543742957</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5859419232949932</v>
+        <v>0.5830913920744362</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6591299708670127</v>
+        <v>0.6568022804336987</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>593</v>
@@ -4976,19 +4976,19 @@
         <v>635491</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>599854</v>
+        <v>596811</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>669786</v>
+        <v>672402</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4999413094588638</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4719054673722164</v>
+        <v>0.4695113208365121</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5269211367245519</v>
+        <v>0.5289787362694619</v>
       </c>
     </row>
     <row r="25">
@@ -5005,19 +5005,19 @@
         <v>130144</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>108849</v>
+        <v>109159</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>150996</v>
+        <v>152260</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2548860753595381</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2131806271543959</v>
+        <v>0.2137868559977568</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2957247927538161</v>
+        <v>0.2981998751824902</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>67</v>
@@ -5026,19 +5026,19 @@
         <v>71581</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56381</v>
+        <v>56681</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>89382</v>
+        <v>88629</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09411900231978988</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07413294924703515</v>
+        <v>0.07452732096240244</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.11752507488149</v>
+        <v>0.1165352049384556</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>188</v>
@@ -5047,19 +5047,19 @@
         <v>201725</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>174187</v>
+        <v>175781</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>229482</v>
+        <v>228964</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1586969277132819</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1370325840846208</v>
+        <v>0.1382869477958973</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1805332930143891</v>
+        <v>0.1801259269724521</v>
       </c>
     </row>
     <row r="26">
@@ -5076,19 +5076,19 @@
         <v>14602</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8657</v>
+        <v>7845</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24850</v>
+        <v>24271</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02859837934386462</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01695566107434761</v>
+        <v>0.01536493248830991</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04866827985218145</v>
+        <v>0.04753412279151582</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -5097,19 +5097,19 @@
         <v>14589</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7532</v>
+        <v>8600</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23193</v>
+        <v>24524</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01918262469348896</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009904059167370347</v>
+        <v>0.0113081724690302</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03049504692751119</v>
+        <v>0.03224545831269895</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>28</v>
@@ -5118,19 +5118,19 @@
         <v>29191</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20193</v>
+        <v>19676</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>41668</v>
+        <v>40509</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02296480402809096</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01588622901367982</v>
+        <v>0.01547946106782707</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03278023144918459</v>
+        <v>0.03186883421077817</v>
       </c>
     </row>
     <row r="27">
@@ -5147,19 +5147,19 @@
         <v>203868</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>180297</v>
+        <v>182769</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>225717</v>
+        <v>228250</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3992742983697938</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3531104301597449</v>
+        <v>0.3579523158597865</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4420653943228439</v>
+        <v>0.447026490481595</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>183</v>
@@ -5168,19 +5168,19 @@
         <v>200857</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>176957</v>
+        <v>177877</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>227010</v>
+        <v>228296</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2640988292437641</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2326736174482604</v>
+        <v>0.2338832461660442</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2984870264950351</v>
+        <v>0.3001772657264841</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>380</v>
@@ -5189,19 +5189,19 @@
         <v>404725</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>372903</v>
+        <v>370486</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>438949</v>
+        <v>439289</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3183969587997633</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2933626219369944</v>
+        <v>0.2914618349899569</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3453215438768611</v>
+        <v>0.3455885237702998</v>
       </c>
     </row>
     <row r="28">
@@ -5293,19 +5293,19 @@
         <v>197375</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>182924</v>
+        <v>183079</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>210248</v>
+        <v>210608</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7395586815058338</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6854122243277041</v>
+        <v>0.6859905150043888</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7877953398103598</v>
+        <v>0.7891410367285612</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>830</v>
@@ -5314,19 +5314,19 @@
         <v>882146</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>854517</v>
+        <v>852829</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>907970</v>
+        <v>907962</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7951914840235886</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7702853624992105</v>
+        <v>0.768763819587266</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.818469288816144</v>
+        <v>0.8184625254455463</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1025</v>
@@ -5335,19 +5335,19 @@
         <v>1079521</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1047635</v>
+        <v>1048681</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1107275</v>
+        <v>1109177</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.784403058274811</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7612340664041339</v>
+        <v>0.7619936737284747</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8045693679317744</v>
+        <v>0.8059511472815716</v>
       </c>
     </row>
     <row r="30">
@@ -5364,19 +5364,19 @@
         <v>6016</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2155</v>
+        <v>2264</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13087</v>
+        <v>12859</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0225400668110755</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.008072977335196114</v>
+        <v>0.008482895754059803</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0490365270274533</v>
+        <v>0.0481824881759295</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>58</v>
@@ -5385,19 +5385,19 @@
         <v>63014</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>47692</v>
+        <v>49685</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>80625</v>
+        <v>81927</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05680271609572488</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04299119522613838</v>
+        <v>0.0447870392116926</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07267757423240433</v>
+        <v>0.07385164889496219</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>64</v>
@@ -5406,19 +5406,19 @@
         <v>69030</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>54311</v>
+        <v>53783</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>86807</v>
+        <v>88448</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05015843374726906</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03946336645509164</v>
+        <v>0.0390796505325969</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06307594984316979</v>
+        <v>0.06426839473828209</v>
       </c>
     </row>
     <row r="31">
@@ -5435,19 +5435,19 @@
         <v>17922</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11192</v>
+        <v>11383</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>26075</v>
+        <v>26807</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06715188827921283</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04193673428981284</v>
+        <v>0.04265338565089224</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09770274466999343</v>
+        <v>0.100443314635729</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -5456,19 +5456,19 @@
         <v>12759</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6926</v>
+        <v>6978</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>21428</v>
+        <v>22372</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01150109427918715</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006243140655204668</v>
+        <v>0.006290593232595077</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01931537228868176</v>
+        <v>0.02016707622958772</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>32</v>
@@ -5477,19 +5477,19 @@
         <v>30680</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>22144</v>
+        <v>21582</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>42126</v>
+        <v>41990</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02229300897264853</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01609010264592839</v>
+        <v>0.01568221794798953</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03060934963265745</v>
+        <v>0.03051050320869098</v>
       </c>
     </row>
     <row r="32">
@@ -5506,19 +5506,19 @@
         <v>45570</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>34493</v>
+        <v>34145</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>58744</v>
+        <v>59026</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1707493634038779</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1292427139984553</v>
+        <v>0.1279398318663421</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2201110033243789</v>
+        <v>0.221169877129557</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>143</v>
@@ -5527,19 +5527,19 @@
         <v>151432</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>129589</v>
+        <v>128161</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>174486</v>
+        <v>174939</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1365047056014993</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1168152397629457</v>
+        <v>0.1155278922264005</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1572867662086904</v>
+        <v>0.1576946764669878</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>188</v>
@@ -5548,19 +5548,19 @@
         <v>197002</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>170043</v>
+        <v>170891</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>221831</v>
+        <v>226348</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1431454990052713</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1235569101498642</v>
+        <v>0.1241727605927732</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1611869900027682</v>
+        <v>0.164469581444909</v>
       </c>
     </row>
     <row r="33">
@@ -5652,19 +5652,19 @@
         <v>1229970</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1175977</v>
+        <v>1174331</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1289461</v>
+        <v>1288498</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.359547760765297</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3437644306927943</v>
+        <v>0.3432834486443379</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3769384516687952</v>
+        <v>0.3766570273908126</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2033</v>
@@ -5673,19 +5673,19 @@
         <v>2181693</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2120309</v>
+        <v>2119812</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2240928</v>
+        <v>2243034</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6148831045974158</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5975827426116429</v>
+        <v>0.5974427282975744</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6315775805185091</v>
+        <v>0.6321711875828007</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3192</v>
@@ -5694,19 +5694,19 @@
         <v>3411663</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3331859</v>
+        <v>3328726</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3505237</v>
+        <v>3504700</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.489546800315826</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4780954750490564</v>
+        <v>0.4776459867944668</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5029738911752187</v>
+        <v>0.5028968565822245</v>
       </c>
     </row>
     <row r="35">
@@ -5723,19 +5723,19 @@
         <v>837884</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>788885</v>
+        <v>783578</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>891584</v>
+        <v>887821</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2449323806628262</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2306086661412139</v>
+        <v>0.2290574500942422</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2606301354615613</v>
+        <v>0.2595300047101904</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>358</v>
@@ -5744,19 +5744,19 @@
         <v>391119</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>352425</v>
+        <v>353860</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>431600</v>
+        <v>430236</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.11023197073908</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09932648130754775</v>
+        <v>0.09973111904935728</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1216409797844804</v>
+        <v>0.1212565356016304</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1134</v>
@@ -5765,19 +5765,19 @@
         <v>1229003</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1165519</v>
+        <v>1167871</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1293595</v>
+        <v>1298369</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1763522786904849</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1672427421762237</v>
+        <v>0.1675802531486987</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1856207265101766</v>
+        <v>0.1863056585159565</v>
       </c>
     </row>
     <row r="36">
@@ -5794,19 +5794,19 @@
         <v>95901</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>77051</v>
+        <v>76183</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>118512</v>
+        <v>117447</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02803400162042819</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02252377012772521</v>
+        <v>0.02226993797595776</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03464367372890979</v>
+        <v>0.03433246140362323</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>67</v>
@@ -5815,19 +5815,19 @@
         <v>73860</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>57304</v>
+        <v>58092</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>92793</v>
+        <v>91426</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0208164101247788</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01615038790339587</v>
+        <v>0.0163724951254444</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02615266764560788</v>
+        <v>0.02576733618295536</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>157</v>
@@ -5836,19 +5836,19 @@
         <v>169761</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>145151</v>
+        <v>145612</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>197906</v>
+        <v>197674</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02435930485412623</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02082795824633827</v>
+        <v>0.02089417667699296</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02839792227069333</v>
+        <v>0.02836462440706451</v>
       </c>
     </row>
     <row r="37">
@@ -5865,19 +5865,19 @@
         <v>1257125</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1201832</v>
+        <v>1201981</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1315574</v>
+        <v>1319038</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3674858569514486</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3513223386310859</v>
+        <v>0.3513659016772679</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3845717658532927</v>
+        <v>0.3855845062019682</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>830</v>
@@ -5886,19 +5886,19 @@
         <v>901471</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>851087</v>
+        <v>850685</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>958299</v>
+        <v>959166</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2540685145387254</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2398683268310274</v>
+        <v>0.2397548715025943</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2700846969256285</v>
+        <v>0.2703288816716296</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2009</v>
@@ -5907,19 +5907,19 @@
         <v>2158597</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2075509</v>
+        <v>2075033</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2236623</v>
+        <v>2234980</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3097416161395629</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2978192334012368</v>
+        <v>0.2977508510930215</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3209377229471339</v>
+        <v>0.3207020501909456</v>
       </c>
     </row>
     <row r="38">
@@ -6253,19 +6253,19 @@
         <v>219441</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>199550</v>
+        <v>197369</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>241911</v>
+        <v>240293</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5114084920328568</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4650510133092719</v>
+        <v>0.4599678114557547</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5637732446285398</v>
+        <v>0.5600032796190285</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>200</v>
@@ -6274,19 +6274,19 @@
         <v>211850</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>191754</v>
+        <v>193201</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>230840</v>
+        <v>231421</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6104219597861157</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5525188507686465</v>
+        <v>0.556687654137754</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6651408814755508</v>
+        <v>0.666815027432923</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>407</v>
@@ -6295,19 +6295,19 @@
         <v>431291</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>402502</v>
+        <v>398031</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>458243</v>
+        <v>457639</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5556824678034857</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5185903755430269</v>
+        <v>0.5128297916800812</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5904071881110959</v>
+        <v>0.5896296508471082</v>
       </c>
     </row>
     <row r="5">
@@ -6324,19 +6324,19 @@
         <v>101242</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>84622</v>
+        <v>84978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>121113</v>
+        <v>121426</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2359458983394422</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1972126295778994</v>
+        <v>0.198041335950244</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2822542273157532</v>
+        <v>0.2829837246345941</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -6345,19 +6345,19 @@
         <v>68724</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54825</v>
+        <v>54315</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>84890</v>
+        <v>85609</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1980193123502505</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.157971348641776</v>
+        <v>0.1565032024725062</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2446003123332604</v>
+        <v>0.2466738294976727</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>156</v>
@@ -6366,19 +6366,19 @@
         <v>169966</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>146463</v>
+        <v>147749</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>193445</v>
+        <v>195495</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2189869857061365</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1887056923800313</v>
+        <v>0.1903625411055021</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2492377953759349</v>
+        <v>0.2518786721993884</v>
       </c>
     </row>
     <row r="6">
@@ -6395,19 +6395,19 @@
         <v>16090</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9785</v>
+        <v>8516</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26052</v>
+        <v>25693</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03749872882105092</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02280322790150076</v>
+        <v>0.01984600080141928</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06071366866285475</v>
+        <v>0.05987724928105709</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -6416,19 +6416,19 @@
         <v>7480</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3620</v>
+        <v>3654</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14190</v>
+        <v>14804</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02155200975635611</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01043172858232325</v>
+        <v>0.01052968607935991</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04088780052363149</v>
+        <v>0.04265652532654421</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -6437,19 +6437,19 @@
         <v>23570</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15477</v>
+        <v>15017</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34759</v>
+        <v>35552</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0303681366954349</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01994094887799566</v>
+        <v>0.01934810511705127</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04478461680572964</v>
+        <v>0.04580522859654994</v>
       </c>
     </row>
     <row r="7">
@@ -6466,19 +6466,19 @@
         <v>92318</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>74296</v>
+        <v>76144</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110069</v>
+        <v>112300</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2151468808066501</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.173146439878855</v>
+        <v>0.1774540863185912</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2565154674644824</v>
+        <v>0.261716044862572</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -6487,19 +6487,19 @@
         <v>59002</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45471</v>
+        <v>45526</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75045</v>
+        <v>73213</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1700067181072777</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1310185315326016</v>
+        <v>0.1311781590161141</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2162329087714726</v>
+        <v>0.2109540114129061</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -6508,19 +6508,19 @@
         <v>151319</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>129172</v>
+        <v>129959</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>173093</v>
+        <v>174460</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1949624097949429</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1664272077974049</v>
+        <v>0.1674413477737322</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2230160198465412</v>
+        <v>0.2247764382577388</v>
       </c>
     </row>
     <row r="8">
@@ -6612,19 +6612,19 @@
         <v>186895</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>168045</v>
+        <v>167786</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>207592</v>
+        <v>207291</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4968559383182909</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4467443219536084</v>
+        <v>0.4460553935979972</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5518789899714305</v>
+        <v>0.5510778364483868</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>190</v>
@@ -6633,19 +6633,19 @@
         <v>201246</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>181581</v>
+        <v>180843</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>222066</v>
+        <v>221697</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5420827748391187</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4891134880756368</v>
+        <v>0.4871253804132168</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.598164379847518</v>
+        <v>0.5971698133381446</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>365</v>
@@ -6654,19 +6654,19 @@
         <v>388141</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>361799</v>
+        <v>362012</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>417160</v>
+        <v>419968</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5193208207026588</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.484075718371344</v>
+        <v>0.4843607406892039</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5581470222531028</v>
+        <v>0.5619041538900166</v>
       </c>
     </row>
     <row r="10">
@@ -6683,19 +6683,19 @@
         <v>83611</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68909</v>
+        <v>67804</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>102152</v>
+        <v>100099</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.222278289176253</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1831937921499863</v>
+        <v>0.1802559441468266</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.271569775889764</v>
+        <v>0.2661115959715875</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -6704,19 +6704,19 @@
         <v>69943</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54458</v>
+        <v>54499</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85131</v>
+        <v>86798</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1884014699057723</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1466885583223557</v>
+        <v>0.1467999138269516</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2293114323525457</v>
+        <v>0.2338020668014038</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -6725,19 +6725,19 @@
         <v>153554</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>131863</v>
+        <v>132120</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>177303</v>
+        <v>176746</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2054511392137</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1764282970123983</v>
+        <v>0.176772425104814</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2372265113970713</v>
+        <v>0.2364814520921876</v>
       </c>
     </row>
     <row r="11">
@@ -6754,19 +6754,19 @@
         <v>11639</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5904</v>
+        <v>5833</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21080</v>
+        <v>21779</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03094195232007367</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01569481261509532</v>
+        <v>0.01550707608920845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05604013630355101</v>
+        <v>0.05789835468771502</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -6775,19 +6775,19 @@
         <v>7738</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3772</v>
+        <v>3745</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14550</v>
+        <v>14492</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02084378997576047</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01015967445286037</v>
+        <v>0.01008757709722122</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03919110436693068</v>
+        <v>0.03903637963117999</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -6796,19 +6796,19 @@
         <v>19377</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11808</v>
+        <v>12019</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>29802</v>
+        <v>31252</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02592603595681491</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01579912698964192</v>
+        <v>0.01608089047416575</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03987437740333585</v>
+        <v>0.04181368459152236</v>
       </c>
     </row>
     <row r="12">
@@ -6825,19 +6825,19 @@
         <v>94010</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>78006</v>
+        <v>76151</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>110967</v>
+        <v>111237</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2499238201853824</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2073776738640018</v>
+        <v>0.2024450498598468</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2950029386351147</v>
+        <v>0.2957222235046034</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -6846,19 +6846,19 @@
         <v>92318</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>76499</v>
+        <v>76665</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>112032</v>
+        <v>110259</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2486719652793485</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2060605275503456</v>
+        <v>0.2065060525005583</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3017738284352619</v>
+        <v>0.2969966775779054</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>175</v>
@@ -6867,19 +6867,19 @@
         <v>186329</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>163828</v>
+        <v>162834</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>210408</v>
+        <v>209965</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2493020041268262</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2191973287451615</v>
+        <v>0.2178663626759678</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2815200723930889</v>
+        <v>0.2809262494858197</v>
       </c>
     </row>
     <row r="13">
@@ -6971,19 +6971,19 @@
         <v>187390</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>166061</v>
+        <v>165929</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>208685</v>
+        <v>210347</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3590429733554063</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3181776286977015</v>
+        <v>0.3179246778094227</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3998453007357008</v>
+        <v>0.4030292779137826</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>87</v>
@@ -6992,19 +6992,19 @@
         <v>97259</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>85676</v>
+        <v>84970</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>111431</v>
+        <v>110974</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5854631869951551</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5157404737207891</v>
+        <v>0.5114865558197463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6707739420966378</v>
+        <v>0.6680260808077207</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>270</v>
@@ -7013,19 +7013,19 @@
         <v>284648</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>258493</v>
+        <v>257751</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>310509</v>
+        <v>309719</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4137109467588534</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.37569750770375</v>
+        <v>0.3746186402610275</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4512969574228554</v>
+        <v>0.4501501318187429</v>
       </c>
     </row>
     <row r="15">
@@ -7042,19 +7042,19 @@
         <v>117787</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>98158</v>
+        <v>100174</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>136653</v>
+        <v>137386</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2256820317053805</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1880723260444924</v>
+        <v>0.1919350537849047</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2618298100280794</v>
+        <v>0.263235578802638</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>16</v>
@@ -7063,19 +7063,19 @@
         <v>16361</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9752</v>
+        <v>9875</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>25242</v>
+        <v>25128</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09848635881526549</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05870440710022003</v>
+        <v>0.05944208239743013</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1519484517602626</v>
+        <v>0.1512606006762125</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>135</v>
@@ -7084,19 +7084,19 @@
         <v>134147</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>114276</v>
+        <v>115825</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>156504</v>
+        <v>154912</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1949713034059455</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1660896835159044</v>
+        <v>0.1683417569956589</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2274651670579614</v>
+        <v>0.2251503848962436</v>
       </c>
     </row>
     <row r="16">
@@ -7113,19 +7113,19 @@
         <v>14179</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7802</v>
+        <v>8378</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24371</v>
+        <v>23526</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02716791441208237</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01494956982806244</v>
+        <v>0.01605292354865084</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04669476589474088</v>
+        <v>0.04507731699570541</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -7134,19 +7134,19 @@
         <v>6496</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3029</v>
+        <v>3107</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13950</v>
+        <v>15847</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03910474180699721</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0182321436278481</v>
+        <v>0.0187024122969265</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08397258011282624</v>
+        <v>0.09539517009298171</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -7155,19 +7155,19 @@
         <v>20675</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13063</v>
+        <v>13194</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31121</v>
+        <v>31650</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0300499987987044</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01898632843953567</v>
+        <v>0.01917622737646025</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04523154130689928</v>
+        <v>0.04600093136019495</v>
       </c>
     </row>
     <row r="17">
@@ -7184,19 +7184,19 @@
         <v>202559</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>182202</v>
+        <v>180625</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>227147</v>
+        <v>224048</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3881070805271308</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3491029826426721</v>
+        <v>0.3460824366311152</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.435219237595157</v>
+        <v>0.4292813096010133</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -7205,19 +7205,19 @@
         <v>46007</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34928</v>
+        <v>34574</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58235</v>
+        <v>58861</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2769457123825822</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2102527728606737</v>
+        <v>0.2081201673432902</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3505521445739997</v>
+        <v>0.3543225330018179</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>230</v>
@@ -7226,19 +7226,19 @@
         <v>248565</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>223223</v>
+        <v>225732</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>274829</v>
+        <v>275413</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3612677510364968</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3244351392667767</v>
+        <v>0.3280823232942631</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.399439656760012</v>
+        <v>0.4002887926114378</v>
       </c>
     </row>
     <row r="18">
@@ -7330,19 +7330,19 @@
         <v>449482</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>418554</v>
+        <v>415140</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>482664</v>
+        <v>482904</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3912709203908749</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3643482058052667</v>
+        <v>0.3613766122400232</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4201558767573465</v>
+        <v>0.4203647403821218</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>393</v>
@@ -7351,19 +7351,19 @@
         <v>408238</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>376853</v>
+        <v>382226</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>436192</v>
+        <v>435746</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4948652493177802</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4568202132183001</v>
+        <v>0.4633332570240057</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5287514441692466</v>
+        <v>0.5282102057033228</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>829</v>
@@ -7372,19 +7372,19 @@
         <v>857720</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>814097</v>
+        <v>812459</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>899081</v>
+        <v>899254</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4345698052373042</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4124679736090788</v>
+        <v>0.4116378691070721</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4555258352674713</v>
+        <v>0.4556133416673073</v>
       </c>
     </row>
     <row r="20">
@@ -7401,19 +7401,19 @@
         <v>261756</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>232847</v>
+        <v>236451</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>292782</v>
+        <v>291399</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2278566789805591</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2026914775669844</v>
+        <v>0.2058289133320499</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2548647279344076</v>
+        <v>0.2536607375198573</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>95</v>
@@ -7422,19 +7422,19 @@
         <v>100897</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>83223</v>
+        <v>83758</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>122536</v>
+        <v>122232</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1223064991736837</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.100882654664668</v>
+        <v>0.1015311054634109</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1485373176452038</v>
+        <v>0.1481693070046775</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>348</v>
@@ -7443,19 +7443,19 @@
         <v>362652</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>327884</v>
+        <v>329787</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>398661</v>
+        <v>402110</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1837403153888564</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1661247188879731</v>
+        <v>0.1670888701220076</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2019845648051742</v>
+        <v>0.2037319653043773</v>
       </c>
     </row>
     <row r="21">
@@ -7472,19 +7472,19 @@
         <v>31397</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22282</v>
+        <v>21042</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>47817</v>
+        <v>44621</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02733113143783514</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01939603493137353</v>
+        <v>0.018317339157567</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04162445005599979</v>
+        <v>0.03884270250464774</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>30</v>
@@ -7493,19 +7493,19 @@
         <v>31600</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>21774</v>
+        <v>21252</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>44010</v>
+        <v>44650</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03830491253490139</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02639414100440518</v>
+        <v>0.02576110992117008</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05334875296488486</v>
+        <v>0.05412520344903194</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>59</v>
@@ -7514,19 +7514,19 @@
         <v>62997</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>47039</v>
+        <v>48357</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>79362</v>
+        <v>79663</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03191779645100448</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02383279408998901</v>
+        <v>0.02450052762598255</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04020943244655286</v>
+        <v>0.04036161877322259</v>
       </c>
     </row>
     <row r="22">
@@ -7543,19 +7543,19 @@
         <v>406139</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>375317</v>
+        <v>372788</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>440512</v>
+        <v>436542</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3535412691907309</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3267112698750099</v>
+        <v>0.3245095617679269</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3834625022933956</v>
+        <v>0.3800067612391856</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>279</v>
@@ -7564,19 +7564,19 @@
         <v>284214</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>258022</v>
+        <v>258515</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>312367</v>
+        <v>311774</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3445233389736347</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3127730576583465</v>
+        <v>0.3133713502429986</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3786506815576696</v>
+        <v>0.3779321452662377</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>663</v>
@@ -7585,19 +7585,19 @@
         <v>690353</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>649641</v>
+        <v>647673</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>730559</v>
+        <v>731257</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.349772082922835</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.329145144935027</v>
+        <v>0.3281479594757747</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3701429255222033</v>
+        <v>0.37049661105765</v>
       </c>
     </row>
     <row r="23">
@@ -7689,19 +7689,19 @@
         <v>249477</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>224590</v>
+        <v>222621</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>271730</v>
+        <v>276225</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4019249053809327</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3618302914231553</v>
+        <v>0.3586573068254775</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4377757988128803</v>
+        <v>0.4450171237980681</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>411</v>
@@ -7710,19 +7710,19 @@
         <v>437435</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>408783</v>
+        <v>410089</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>463326</v>
+        <v>466378</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5934096916257307</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5545411887393535</v>
+        <v>0.5563137894515414</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6285321267562215</v>
+        <v>0.6326735441065314</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>656</v>
@@ -7731,19 +7731,19 @@
         <v>686912</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>650780</v>
+        <v>648676</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>725677</v>
+        <v>723947</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5058781097257609</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4792682430130558</v>
+        <v>0.4777189128256559</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.534426325560668</v>
+        <v>0.533152270473682</v>
       </c>
     </row>
     <row r="25">
@@ -7760,19 +7760,19 @@
         <v>127978</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>110892</v>
+        <v>108895</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>149241</v>
+        <v>150949</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2061812463605533</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1786551275811764</v>
+        <v>0.175437546702117</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2404382986754275</v>
+        <v>0.243188792223611</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>78</v>
@@ -7781,19 +7781,19 @@
         <v>83081</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65937</v>
+        <v>66476</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>100968</v>
+        <v>102462</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1127053631084459</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08944803056574079</v>
+        <v>0.09017923337241987</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1369694336404459</v>
+        <v>0.1389964728788723</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>206</v>
@@ -7802,19 +7802,19 @@
         <v>211059</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>182790</v>
+        <v>186161</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>240260</v>
+        <v>239044</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1554350863988054</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1346161763533788</v>
+        <v>0.1370985236525265</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1769398768796645</v>
+        <v>0.1760446048077672</v>
       </c>
     </row>
     <row r="26">
@@ -7831,19 +7831,19 @@
         <v>9724</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4861</v>
+        <v>5451</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16536</v>
+        <v>17539</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01566532979853397</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0078319602982837</v>
+        <v>0.008781200288112457</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02664006327961756</v>
+        <v>0.02825614145349678</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -7852,19 +7852,19 @@
         <v>7989</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3925</v>
+        <v>3857</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15731</v>
+        <v>15058</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01083707747503915</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005324722846291458</v>
+        <v>0.005232952935554478</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02134061178931718</v>
+        <v>0.02042745300963046</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -7873,19 +7873,19 @@
         <v>17712</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11271</v>
+        <v>11737</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26945</v>
+        <v>26365</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01304416959956655</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008300690276511709</v>
+        <v>0.008643701230370447</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01984378646215412</v>
+        <v>0.01941644031175167</v>
       </c>
     </row>
     <row r="27">
@@ -7902,19 +7902,19 @@
         <v>233527</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>211329</v>
+        <v>208713</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>259225</v>
+        <v>257643</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.37622851845998</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3404651212411725</v>
+        <v>0.3362517008733844</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4176294365957037</v>
+        <v>0.4150798865224215</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>201</v>
@@ -7923,19 +7923,19 @@
         <v>208650</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>182771</v>
+        <v>184017</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>236018</v>
+        <v>234215</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2830478677907843</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2479409130094051</v>
+        <v>0.2496311328429901</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3201748394197251</v>
+        <v>0.3177276387161909</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>415</v>
@@ -7944,19 +7944,19 @@
         <v>442177</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>408561</v>
+        <v>407481</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>479067</v>
+        <v>479086</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3256426342758672</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.300885884932918</v>
+        <v>0.3000900450974272</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3528101672660285</v>
+        <v>0.352823958992898</v>
       </c>
     </row>
     <row r="28">
@@ -8048,19 +8048,19 @@
         <v>208534</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>192962</v>
+        <v>192281</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>222608</v>
+        <v>224109</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7262327258060174</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6720019570099864</v>
+        <v>0.6696301433847912</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7752470782008696</v>
+        <v>0.7804748351096469</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>781</v>
@@ -8069,19 +8069,19 @@
         <v>859759</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>833321</v>
+        <v>831623</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>884184</v>
+        <v>886771</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7963462094923416</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7718578964102549</v>
+        <v>0.7702854743191717</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8189691234938149</v>
+        <v>0.8213654211074388</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>978</v>
@@ -8090,19 +8090,19 @@
         <v>1068293</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1034048</v>
+        <v>1035866</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1097588</v>
+        <v>1097635</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7816161040544702</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7565607555913006</v>
+        <v>0.7578909719398739</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8030497833352946</v>
+        <v>0.8030836501550851</v>
       </c>
     </row>
     <row r="30">
@@ -8119,19 +8119,19 @@
         <v>5570</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12157</v>
+        <v>12016</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01939919001127695</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.007363555835206866</v>
+        <v>0.007352801032206967</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04233734022620127</v>
+        <v>0.04184797979155741</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>44</v>
@@ -8140,19 +8140,19 @@
         <v>46888</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>34156</v>
+        <v>33887</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>61694</v>
+        <v>62140</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04342987030858863</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03163636646497286</v>
+        <v>0.03138765208720107</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05714343554133985</v>
+        <v>0.05755710424648672</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>49</v>
@@ -8161,19 +8161,19 @@
         <v>52459</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>40161</v>
+        <v>39081</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>69635</v>
+        <v>69097</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03838127714344507</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02938400255349055</v>
+        <v>0.02859346977779826</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0509485282591841</v>
+        <v>0.05055453931402579</v>
       </c>
     </row>
     <row r="31">
@@ -8190,19 +8190,19 @@
         <v>9288</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4276</v>
+        <v>4078</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16434</v>
+        <v>16773</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03234541896723757</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01489231691197103</v>
+        <v>0.01420070149344448</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05723120730944564</v>
+        <v>0.05841468880170599</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -8211,19 +8211,19 @@
         <v>13101</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6672</v>
+        <v>7028</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22271</v>
+        <v>22390</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01213511016122791</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006180067874027702</v>
+        <v>0.006509417806614239</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0206286431055192</v>
+        <v>0.02073843110449817</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>21</v>
@@ -8232,19 +8232,19 @@
         <v>22389</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>13513</v>
+        <v>13928</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>33997</v>
+        <v>33674</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0163810834604056</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.009887090695636671</v>
+        <v>0.0101905178570152</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02487416726712805</v>
+        <v>0.02463740345383845</v>
       </c>
     </row>
     <row r="32">
@@ -8261,19 +8261,19 @@
         <v>63753</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>51185</v>
+        <v>49571</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>79263</v>
+        <v>77888</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.222022665215468</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1782537465925448</v>
+        <v>0.1726354668431025</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2760391705924843</v>
+        <v>0.2712488390200001</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>153</v>
@@ -8282,19 +8282,19 @@
         <v>159881</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>138645</v>
+        <v>137208</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>185226</v>
+        <v>185246</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1480888100378419</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1284193003679903</v>
+        <v>0.1270880303024778</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1715641065238757</v>
+        <v>0.171583100248441</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>214</v>
@@ -8303,19 +8303,19 @@
         <v>223634</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>196207</v>
+        <v>196377</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>250668</v>
+        <v>250522</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1636215353416791</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1435547316986968</v>
+        <v>0.1436789077732354</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1834010351360372</v>
+        <v>0.1832939383242215</v>
       </c>
     </row>
     <row r="33">
@@ -8407,19 +8407,19 @@
         <v>1501219</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1443505</v>
+        <v>1445987</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1561410</v>
+        <v>1560562</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4436506787778728</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4265948287300845</v>
+        <v>0.4273283867792597</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.461439030771412</v>
+        <v>0.4611883409548523</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2062</v>
@@ -8428,19 +8428,19 @@
         <v>2215787</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2163825</v>
+        <v>2156261</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2272003</v>
+        <v>2274301</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6283858762022444</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6136496536039869</v>
+        <v>0.6115044278514674</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6443284806809512</v>
+        <v>0.6449799389676442</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3505</v>
@@ -8449,19 +8449,19 @@
         <v>3717006</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3637512</v>
+        <v>3633603</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3804672</v>
+        <v>3808671</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.537921410210133</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5264170054624885</v>
+        <v>0.5258514153033355</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5506083030621794</v>
+        <v>0.5511869882299365</v>
       </c>
     </row>
     <row r="35">
@@ -8478,19 +8478,19 @@
         <v>697944</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>653409</v>
+        <v>652808</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>750219</v>
+        <v>745819</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2062613632163116</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1931000704001422</v>
+        <v>0.192922309054616</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2217099628902052</v>
+        <v>0.2204096337177001</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>364</v>
@@ -8499,19 +8499,19 @@
         <v>385894</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>351592</v>
+        <v>348039</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>425581</v>
+        <v>423775</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1094374777298315</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09970969826158918</v>
+        <v>0.09870219485374947</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1206925562024144</v>
+        <v>0.1201804035807638</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1040</v>
@@ -8520,19 +8520,19 @@
         <v>1083838</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1028785</v>
+        <v>1022740</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1150722</v>
+        <v>1145860</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1568519456706345</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1488847886504271</v>
+        <v>0.1480098384691297</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1665312967181806</v>
+        <v>0.1658276459110439</v>
       </c>
     </row>
     <row r="36">
@@ -8549,19 +8549,19 @@
         <v>92317</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>75083</v>
+        <v>75251</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>111731</v>
+        <v>112277</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02728227375645361</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02218906054654582</v>
+        <v>0.02223876336429558</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03301944154523491</v>
+        <v>0.03318101388326156</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>72</v>
@@ -8570,19 +8570,19 @@
         <v>74404</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>57704</v>
+        <v>58460</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>92668</v>
+        <v>93499</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02110050521266527</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01636449419453541</v>
+        <v>0.01657891026820322</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02628011129826299</v>
+        <v>0.02651585077280569</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>159</v>
@@ -8591,19 +8591,19 @@
         <v>166721</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>140399</v>
+        <v>142340</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>193666</v>
+        <v>197569</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02412770521568357</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02031838186752317</v>
+        <v>0.02059936546077937</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02802711314710859</v>
+        <v>0.02859192622988363</v>
       </c>
     </row>
     <row r="37">
@@ -8620,19 +8620,19 @@
         <v>1092305</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1040583</v>
+        <v>1033674</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1153113</v>
+        <v>1148426</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.322805684249362</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3075204462103213</v>
+        <v>0.3054786638097939</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3407761340688309</v>
+        <v>0.3393908707103578</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>823</v>
@@ -8641,19 +8641,19 @@
         <v>850072</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>801989</v>
+        <v>800375</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>902212</v>
+        <v>906091</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2410761408552588</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2274399368158465</v>
+        <v>0.2269822436032241</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2558626009996914</v>
+        <v>0.2569626519795238</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1839</v>
@@ -8662,19 +8662,19 @@
         <v>1942378</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1865444</v>
+        <v>1865088</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2011425</v>
+        <v>2015531</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.281098938903549</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2699652408943994</v>
+        <v>0.2699136599014555</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2910913970769047</v>
+        <v>0.2916855726817369</v>
       </c>
     </row>
     <row r="38">
